--- a/cnb/270/sentistrength-manual/stopword kecuali-stemming/sentimen_stopword kecuali-stemming_terpisah.xlsx
+++ b/cnb/270/sentistrength-manual/stopword kecuali-stemming/sentimen_stopword kecuali-stemming_terpisah.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="sentimen_stopword kecuali-stemm" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="333">
   <si>
     <t>kecewa banget pesan free pouch kirim cotton pad kaget pas unboxing untung video segera kabarin customer servicenya suruh isi googleform kirim ulang pouchnya hari enggak kabar akhir tanya kabar kalau stock pouch nyata habis padahal baik baik sabar ikut prosedur customer service pikir positif nyata begini cara</t>
   </si>
@@ -1000,6 +1000,24 @@
   </si>
   <si>
     <t>58,75%</t>
+  </si>
+  <si>
+    <t>Precision avg</t>
+  </si>
+  <si>
+    <t>51,28</t>
+  </si>
+  <si>
+    <t>Recall avg</t>
+  </si>
+  <si>
+    <t>48,41</t>
+  </si>
+  <si>
+    <t>F1 Score</t>
+  </si>
+  <si>
+    <t>47,2</t>
   </si>
 </sst>
 </file>
@@ -1622,10 +1640,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1637,13 +1671,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1652,15 +1679,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1985,8 +2003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="F41" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2073,13 +2091,13 @@
         <f>CHOOSE(MATCH(C4 &amp; D4, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Neg</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="7"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -2098,15 +2116,15 @@
         <f>CHOOSE(MATCH(C5 &amp; D5, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Neg</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="10" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2127,19 +2145,19 @@
         <f>CHOOSE(MATCH(C6 &amp; D6, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Neg</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="10" t="s">
+      <c r="H6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="3" t="s">
         <v>253</v>
       </c>
     </row>
@@ -2160,17 +2178,17 @@
         <f>CHOOSE(MATCH(C7 &amp; D7, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Pos</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="10" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="3" t="s">
         <v>256</v>
       </c>
     </row>
@@ -2191,17 +2209,17 @@
         <f>CHOOSE(MATCH(C8 &amp; D8, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Pos</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="10" t="s">
+      <c r="G8" s="16"/>
+      <c r="H8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="3" t="s">
         <v>259</v>
       </c>
     </row>
@@ -2276,13 +2294,13 @@
         <f>CHOOSE(MATCH(C12 &amp; D12, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Pos</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5" t="s">
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -2301,15 +2319,15 @@
         <f>CHOOSE(MATCH(C13 &amp; D13, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Pos</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="10" t="s">
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2330,21 +2348,21 @@
         <f>CHOOSE(MATCH(C14 &amp; D14, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Neg</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="10">
+      <c r="H14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
         <f>COUNTIF(E2:E248, "T Neg") + COUNTIF(E2:E248, "T Neg ")</f>
         <v>30</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="3">
         <f>COUNTIF(E2:E248, "F NegNet") + COUNTIF(E2:E248, "F NegNet ")</f>
         <v>21</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="3">
         <f>COUNTIF(E2:E248, "F NegPos") + COUNTIF(E2:E248, "F NegPos ")</f>
         <v>24</v>
       </c>
@@ -2366,19 +2384,19 @@
         <f>CHOOSE(MATCH(C15 &amp; D15, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Neg</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="10">
+      <c r="G15" s="15"/>
+      <c r="H15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="3">
         <f>COUNTIF(E2:E248, "F NetNeg") + COUNTIF(E2:E248, "F NetNeg ")</f>
         <v>11</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="3">
         <f>COUNTIF(E2:E248, "T Net ") + COUNTIF(E2:E248, "T Net")</f>
         <v>24</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="3">
         <f>COUNTIF(E2:E248, "F NetPos") + COUNTIF(E2:E248, "F NetPos ")</f>
         <v>50</v>
       </c>
@@ -2400,19 +2418,19 @@
         <f>CHOOSE(MATCH(C16 &amp; D16, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Pos</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="10">
+      <c r="G16" s="16"/>
+      <c r="H16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="3">
         <f>COUNTIF(E2:E248, "F PosNeg") + COUNTIF(E2:E248, "F PosNeg ")</f>
         <v>4</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="3">
         <f>COUNTIF(E2:E248, "F PosNet") + COUNTIF(E2:E248, "F PosNet ")</f>
         <v>16</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="3">
         <f>COUNTIF(E2:E248, "T Pos") + COUNTIF(E2:E248, "T Pos ")</f>
         <v>67</v>
       </c>
@@ -2557,7 +2575,7 @@
         <f>CHOOSE(MATCH(C23 &amp; D23, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Pos</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="4" t="s">
         <v>293</v>
       </c>
     </row>
@@ -2617,13 +2635,13 @@
         <f>CHOOSE(MATCH(C26 &amp; D26, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Neg</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="H26" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I26" s="10" t="s">
+      <c r="H26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>263</v>
       </c>
     </row>
@@ -2644,13 +2662,13 @@
         <f>CHOOSE(MATCH(C27 &amp; D27, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>F NetPos</v>
       </c>
-      <c r="G27" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="10" t="s">
+      <c r="G27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="3" t="s">
         <v>296</v>
       </c>
     </row>
@@ -2671,13 +2689,13 @@
         <f>CHOOSE(MATCH(C28 &amp; D28, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>F NegNet</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="3" t="s">
         <v>297</v>
       </c>
     </row>
@@ -2737,13 +2755,13 @@
         <f>CHOOSE(MATCH(C31 &amp; D31, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Neg</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="H31" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" s="10" t="s">
+      <c r="H31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>263</v>
       </c>
     </row>
@@ -2764,13 +2782,13 @@
         <f>CHOOSE(MATCH(C32 &amp; D32, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Pos</v>
       </c>
-      <c r="G32" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="10" t="s">
+      <c r="G32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I32" s="3" t="s">
         <v>299</v>
       </c>
     </row>
@@ -2791,13 +2809,13 @@
         <f>CHOOSE(MATCH(C33 &amp; D33, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Net</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="3" t="s">
         <v>300</v>
       </c>
     </row>
@@ -2857,13 +2875,13 @@
         <f>CHOOSE(MATCH(C36 &amp; D36, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>F NegPos</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="H36" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36" s="10" t="s">
+      <c r="H36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>263</v>
       </c>
     </row>
@@ -2884,13 +2902,13 @@
         <f>CHOOSE(MATCH(C37 &amp; D37, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>F NegNet</v>
       </c>
-      <c r="G37" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" s="10" t="s">
+      <c r="G37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="I37" s="3" t="s">
         <v>266</v>
       </c>
     </row>
@@ -2911,13 +2929,13 @@
         <f>CHOOSE(MATCH(C38 &amp; D38, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>F NegNet</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="I38" s="10" t="s">
+      <c r="I38" s="3" t="s">
         <v>302</v>
       </c>
     </row>
@@ -2977,19 +2995,19 @@
         <f>CHOOSE(MATCH(C41 &amp; D41, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Pos</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="H41" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="I41" s="15" t="s">
+      <c r="I41" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="J41" s="15" t="s">
+      <c r="J41" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="K41" s="15" t="s">
+      <c r="K41" s="5" t="s">
         <v>272</v>
       </c>
     </row>
@@ -3010,19 +3028,19 @@
         <f>CHOOSE(MATCH(C42 &amp; D42, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Net</v>
       </c>
-      <c r="G42" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H42" s="15">
+      <c r="G42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="5">
         <v>30</v>
       </c>
-      <c r="I42" s="15">
+      <c r="I42" s="5">
         <v>15</v>
       </c>
-      <c r="J42" s="15">
+      <c r="J42" s="5">
         <v>45</v>
       </c>
-      <c r="K42" s="16"/>
+      <c r="K42" s="6"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
@@ -3041,19 +3059,19 @@
         <f>CHOOSE(MATCH(C43 &amp; D43, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Pos</v>
       </c>
-      <c r="G43" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" s="15">
+      <c r="G43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="5">
         <v>24</v>
       </c>
-      <c r="I43" s="15">
+      <c r="I43" s="5">
         <v>37</v>
       </c>
-      <c r="J43" s="15">
+      <c r="J43" s="5">
         <v>61</v>
       </c>
-      <c r="K43" s="16"/>
+      <c r="K43" s="6"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
@@ -3072,19 +3090,19 @@
         <f>CHOOSE(MATCH(C44 &amp; D44, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Net</v>
       </c>
-      <c r="G44" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H44" s="15">
+      <c r="G44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="5">
         <v>67</v>
       </c>
-      <c r="I44" s="15">
+      <c r="I44" s="5">
         <v>74</v>
       </c>
-      <c r="J44" s="15">
+      <c r="J44" s="5">
         <v>20</v>
       </c>
-      <c r="K44" s="16"/>
+      <c r="K44" s="6"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
@@ -3148,6 +3166,9 @@
       <c r="I47" s="2" t="s">
         <v>275</v>
       </c>
+      <c r="J47" s="2" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
@@ -3176,7 +3197,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3203,7 +3224,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3230,7 +3251,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3247,17 +3268,20 @@
         <f>CHOOSE(MATCH(C51 &amp; D51, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Pos</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G51" s="4">
         <v>0.67</v>
       </c>
-      <c r="H51" s="14" t="s">
+      <c r="H51" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="I51" s="14" t="s">
+      <c r="I51" s="4" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3275,7 +3299,7 @@
         <v>F NetNeg</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3301,8 +3325,11 @@
       <c r="I53" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3329,7 +3356,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3356,7 +3383,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3383,7 +3410,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3400,17 +3427,20 @@
         <f>CHOOSE(MATCH(C57 &amp; D57, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Neg</v>
       </c>
-      <c r="G57" s="14">
+      <c r="G57" s="4">
         <v>0.4</v>
       </c>
-      <c r="H57" s="14" t="s">
+      <c r="H57" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="I57" s="14">
+      <c r="I57" s="4">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J57" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3428,7 +3458,7 @@
         <v>F NegPos</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3448,8 +3478,11 @@
       <c r="G59" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3470,7 +3503,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3491,7 +3524,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3512,7 +3545,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3533,7 +3566,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3553,6 +3586,9 @@
       <c r="G64" t="s">
         <v>316</v>
       </c>
+      <c r="J64" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
@@ -3571,7 +3607,7 @@
         <f>CHOOSE(MATCH(C65 &amp; D65, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>F NetPos</v>
       </c>
-      <c r="G65" s="14">
+      <c r="G65" s="4">
         <v>0.5</v>
       </c>
     </row>
@@ -3901,7 +3937,7 @@
         <f>CHOOSE(MATCH(C81 &amp; D81, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>F NegNet</v>
       </c>
-      <c r="G81" s="14" t="s">
+      <c r="G81" s="4" t="s">
         <v>326</v>
       </c>
     </row>
@@ -6913,13 +6949,14 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G14:G16"/>
     <mergeCell ref="G4:H5"/>
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="G6:G8"/>
     <mergeCell ref="G12:H13"/>
     <mergeCell ref="I12:K12"/>
-    <mergeCell ref="G14:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>